--- a/resources/templet/projectexpend.xlsx
+++ b/resources/templet/projectexpend.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\souvi\pm\pm\resources\templet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>项目名称</t>
   </si>
@@ -61,23 +66,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>实际支付日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-12-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>应付金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>应付月份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实付金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -88,11 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,19 +171,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -202,6 +180,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -248,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,9 +266,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,14 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -504,17 +492,15 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.625" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -525,23 +511,17 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -564,23 +544,14 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3">
-        <v>122</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"公司,个人"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>0</formula1>
@@ -593,12 +564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -606,12 +577,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/templet/projectexpend.xlsx
+++ b/resources/templet/projectexpend.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7830"/>
+    <workbookView minimized="1" xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
